--- a/urls_to_test.xlsx
+++ b/urls_to_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caglar.sarikaya\Desktop\url-tester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caglar.sarikaya\Documents\GitHub\url-tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3679146A-617C-4D4E-9CB0-AF5A82E404C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F0050E-7E62-422C-A98B-44C63B48AF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="2145" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="2040" windowWidth="21600" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,14 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
